--- a/datasets/Encryption/decodingnode_tanpaparity.xlsx
+++ b/datasets/Encryption/decodingnode_tanpaparity.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A151"/>
+  <dimension ref="A1:A895"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,7 +430,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -440,7 +440,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -450,377 +450,377 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -830,7 +830,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -840,7 +840,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -850,7 +850,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -860,7 +860,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -870,7 +870,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -880,7 +880,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -890,7 +890,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -900,7 +900,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -910,7 +910,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -920,7 +920,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -930,7 +930,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -940,7 +940,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -950,7 +950,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -960,7 +960,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -970,7 +970,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -980,7 +980,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -990,7 +990,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -1000,7 +1000,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -1010,7 +1010,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -1020,7 +1020,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -1030,7 +1030,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -1040,7 +1040,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -1050,7 +1050,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -1060,7 +1060,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -1070,7 +1070,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -1080,7 +1080,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -1090,7 +1090,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -1100,7 +1100,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -1110,7 +1110,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -1120,7 +1120,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -1130,7 +1130,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -1140,7 +1140,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -1150,7 +1150,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -1160,7 +1160,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -1170,12 +1170,3732 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/Encryption/decodingnode_tanpaparity.xlsx
+++ b/datasets/Encryption/decodingnode_tanpaparity.xlsx
@@ -2075,7 +2075,7 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
@@ -2085,7 +2085,7 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
@@ -2095,7 +2095,7 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -2105,7 +2105,7 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
@@ -2115,7 +2115,7 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
@@ -2125,7 +2125,7 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
@@ -2135,7 +2135,7 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
@@ -2145,7 +2145,7 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
@@ -2155,7 +2155,7 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
@@ -2165,7 +2165,7 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
@@ -2175,7 +2175,7 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
@@ -2185,7 +2185,7 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
@@ -2195,7 +2195,7 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
@@ -2205,7 +2205,7 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
@@ -2215,7 +2215,7 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
@@ -2225,7 +2225,7 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
@@ -2235,7 +2235,7 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
@@ -2245,7 +2245,7 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
@@ -2255,7 +2255,7 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
@@ -2265,7 +2265,7 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
@@ -2275,7 +2275,7 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
@@ -2285,7 +2285,7 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
@@ -2295,7 +2295,7 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
@@ -2305,7 +2305,7 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -2315,7 +2315,7 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
@@ -2325,7 +2325,7 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
@@ -2335,7 +2335,7 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
@@ -2345,7 +2345,7 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
@@ -2355,7 +2355,7 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
@@ -2365,7 +2365,7 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
@@ -2375,7 +2375,7 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
@@ -2385,7 +2385,7 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394">
@@ -2395,7 +2395,7 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
@@ -2405,7 +2405,7 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
@@ -2415,7 +2415,7 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
@@ -2425,7 +2425,7 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
@@ -2435,7 +2435,7 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
@@ -2445,7 +2445,7 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
@@ -2455,7 +2455,7 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
@@ -2465,7 +2465,7 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
@@ -2475,7 +2475,7 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
@@ -2485,7 +2485,7 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
@@ -2495,7 +2495,7 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
@@ -2505,7 +2505,7 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
@@ -2515,7 +2515,7 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
@@ -2525,7 +2525,7 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
@@ -2535,7 +2535,7 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
@@ -2545,7 +2545,7 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
@@ -2555,7 +2555,7 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428">
@@ -2565,7 +2565,7 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
@@ -2575,7 +2575,7 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
@@ -2585,7 +2585,7 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
@@ -2595,7 +2595,7 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
@@ -2605,7 +2605,7 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438">
@@ -2615,7 +2615,7 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
@@ -2625,7 +2625,7 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
@@ -2635,7 +2635,7 @@
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444">
@@ -2645,7 +2645,7 @@
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
@@ -3125,7 +3125,7 @@
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542">
@@ -3135,7 +3135,7 @@
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544">
@@ -3145,7 +3145,7 @@
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546">
@@ -3155,7 +3155,7 @@
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548">
@@ -3165,7 +3165,7 @@
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
@@ -3175,7 +3175,7 @@
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552">
@@ -3185,7 +3185,7 @@
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554">
@@ -3195,7 +3195,7 @@
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556">
@@ -3205,7 +3205,7 @@
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558">
@@ -3215,7 +3215,7 @@
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
@@ -3225,7 +3225,7 @@
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562">
@@ -3235,7 +3235,7 @@
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564">
@@ -3245,7 +3245,7 @@
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566">
@@ -3255,7 +3255,7 @@
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568">
@@ -3265,7 +3265,7 @@
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570">
@@ -3275,7 +3275,7 @@
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572">
@@ -3285,7 +3285,7 @@
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574">
@@ -3295,7 +3295,7 @@
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576">
@@ -3305,7 +3305,7 @@
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578">
@@ -3315,7 +3315,7 @@
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580">
@@ -3325,7 +3325,7 @@
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582">
@@ -3335,7 +3335,7 @@
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584">
@@ -3345,7 +3345,7 @@
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586">
@@ -3355,7 +3355,7 @@
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588">
@@ -3365,7 +3365,7 @@
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590">
@@ -3375,7 +3375,7 @@
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592">
@@ -3385,7 +3385,7 @@
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594">
@@ -3395,7 +3395,7 @@
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596">
@@ -3405,7 +3405,7 @@
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598">
@@ -3415,7 +3415,7 @@
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600">
@@ -3425,7 +3425,7 @@
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602">
@@ -3435,7 +3435,7 @@
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604">
@@ -3445,7 +3445,7 @@
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606">
@@ -3455,7 +3455,7 @@
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608">
@@ -3465,7 +3465,7 @@
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610">
@@ -3475,7 +3475,7 @@
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612">
@@ -3485,7 +3485,7 @@
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614">
@@ -3495,7 +3495,7 @@
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616">
@@ -3505,7 +3505,7 @@
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618">
@@ -3515,7 +3515,7 @@
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620">
@@ -3525,7 +3525,7 @@
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622">
@@ -3535,7 +3535,7 @@
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624">
@@ -3545,7 +3545,7 @@
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626">
@@ -3555,7 +3555,7 @@
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628">
@@ -3565,7 +3565,7 @@
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630">
@@ -3575,7 +3575,7 @@
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632">
@@ -3585,7 +3585,7 @@
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634">
@@ -3595,7 +3595,7 @@
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636">
@@ -3605,7 +3605,7 @@
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638">
@@ -3615,7 +3615,7 @@
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640">
@@ -3625,7 +3625,7 @@
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642">
@@ -3635,7 +3635,7 @@
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644">
@@ -3645,7 +3645,7 @@
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646">
@@ -3655,7 +3655,7 @@
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648">
@@ -3665,7 +3665,7 @@
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650">
@@ -3675,7 +3675,7 @@
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652">
@@ -3685,7 +3685,7 @@
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654">
@@ -3695,7 +3695,7 @@
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656">
@@ -3705,7 +3705,7 @@
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658">
@@ -3715,7 +3715,7 @@
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660">
@@ -3725,7 +3725,7 @@
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662">
@@ -3735,7 +3735,7 @@
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664">
@@ -3745,7 +3745,7 @@
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666">
@@ -3755,7 +3755,7 @@
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668">
@@ -3765,7 +3765,7 @@
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670">
@@ -3775,7 +3775,7 @@
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672">
@@ -3785,7 +3785,7 @@
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674">
@@ -3795,7 +3795,7 @@
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676">
@@ -3805,7 +3805,7 @@
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678">
@@ -3815,7 +3815,7 @@
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680">
@@ -3825,7 +3825,7 @@
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682">
@@ -3835,7 +3835,7 @@
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684">
@@ -3845,7 +3845,7 @@
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686">
@@ -3855,7 +3855,7 @@
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688">
@@ -3865,7 +3865,7 @@
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690">
@@ -3875,7 +3875,7 @@
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692">
@@ -3885,7 +3885,7 @@
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694">
@@ -3895,7 +3895,7 @@
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696">
@@ -3905,7 +3905,7 @@
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698">
@@ -3915,7 +3915,7 @@
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700">
@@ -3925,7 +3925,7 @@
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702">
@@ -3935,7 +3935,7 @@
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704">
@@ -3945,7 +3945,7 @@
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706">
